--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H2">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I2">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J2">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N2">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O2">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P2">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q2">
-        <v>471.5277262420233</v>
+        <v>472.7372312623701</v>
       </c>
       <c r="R2">
-        <v>471.5277262420233</v>
+        <v>1890.94892504948</v>
       </c>
       <c r="S2">
-        <v>0.09004766504800579</v>
+        <v>0.07985492517000439</v>
       </c>
       <c r="T2">
-        <v>0.09004766504800579</v>
+        <v>0.04448233782977683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H3">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I3">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J3">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N3">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O3">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P3">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q3">
-        <v>189.7113948975132</v>
+        <v>206.8750708433925</v>
       </c>
       <c r="R3">
-        <v>189.7113948975132</v>
+        <v>1241.250425060355</v>
       </c>
       <c r="S3">
-        <v>0.03622919118599808</v>
+        <v>0.03494540351227347</v>
       </c>
       <c r="T3">
-        <v>0.03622919118599808</v>
+        <v>0.02919894874339032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H4">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I4">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J4">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N4">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O4">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P4">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q4">
-        <v>297.6535970042208</v>
+        <v>470.9070475855316</v>
       </c>
       <c r="R4">
-        <v>297.6535970042208</v>
+        <v>2825.44228551319</v>
       </c>
       <c r="S4">
-        <v>0.0568429169944778</v>
+        <v>0.07954576995459853</v>
       </c>
       <c r="T4">
-        <v>0.0568429169944778</v>
+        <v>0.06646518930142217</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H5">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I5">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J5">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N5">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O5">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P5">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q5">
-        <v>856.9770765632618</v>
+        <v>865.1574162667935</v>
       </c>
       <c r="R5">
-        <v>856.9770765632618</v>
+        <v>5190.944497600761</v>
       </c>
       <c r="S5">
-        <v>0.1636569398775482</v>
+        <v>0.1461426690505696</v>
       </c>
       <c r="T5">
-        <v>0.1636569398775482</v>
+        <v>0.1221108321536797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H6">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I6">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J6">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N6">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O6">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P6">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q6">
-        <v>206.1832561102958</v>
+        <v>216.9499110042017</v>
       </c>
       <c r="R6">
-        <v>206.1832561102958</v>
+        <v>1301.69946602521</v>
       </c>
       <c r="S6">
-        <v>0.03937482305165124</v>
+        <v>0.0366472487530065</v>
       </c>
       <c r="T6">
-        <v>0.03937482305165124</v>
+        <v>0.03062094096436707</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H7">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I7">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J7">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N7">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O7">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P7">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q7">
-        <v>53.88507934189091</v>
+        <v>59.44790495839776</v>
       </c>
       <c r="R7">
-        <v>53.88507934189091</v>
+        <v>237.791619833591</v>
       </c>
       <c r="S7">
-        <v>0.01029043533523474</v>
+        <v>0.01004195922815243</v>
       </c>
       <c r="T7">
-        <v>0.01029043533523474</v>
+        <v>0.005593766720193606</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H8">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I8">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J8">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N8">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O8">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P8">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q8">
-        <v>43.40755417366945</v>
+        <v>47.45853054095334</v>
       </c>
       <c r="R8">
-        <v>43.40755417366945</v>
+        <v>284.75118324572</v>
       </c>
       <c r="S8">
-        <v>0.008289542016830395</v>
+        <v>0.008016710244941237</v>
       </c>
       <c r="T8">
-        <v>0.008289542016830395</v>
+        <v>0.006698434930088536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H9">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I9">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J9">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N9">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O9">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P9">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q9">
-        <v>17.46431268635396</v>
+        <v>20.768380864705</v>
       </c>
       <c r="R9">
-        <v>17.46431268635396</v>
+        <v>186.915427782345</v>
       </c>
       <c r="S9">
-        <v>0.003335160355485125</v>
+        <v>0.003508201576221361</v>
       </c>
       <c r="T9">
-        <v>0.003335160355485125</v>
+        <v>0.004396964452117057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H10">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I10">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J10">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N10">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O10">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P10">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q10">
-        <v>27.40117689350163</v>
+        <v>47.27479669860111</v>
       </c>
       <c r="R10">
-        <v>27.40117689350163</v>
+        <v>425.47317028741</v>
       </c>
       <c r="S10">
-        <v>0.005232803632761842</v>
+        <v>0.007985673865189519</v>
       </c>
       <c r="T10">
-        <v>0.005232803632761842</v>
+        <v>0.0100087533023852</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H11">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I11">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J11">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N11">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O11">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P11">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q11">
-        <v>78.89096824270139</v>
+        <v>86.853958070931</v>
       </c>
       <c r="R11">
-        <v>78.89096824270139</v>
+        <v>781.6856226383791</v>
       </c>
       <c r="S11">
-        <v>0.01506581074298346</v>
+        <v>0.01467139853561388</v>
       </c>
       <c r="T11">
-        <v>0.01506581074298346</v>
+        <v>0.01838823010091083</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H12">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I12">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J12">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N12">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O12">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P12">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q12">
-        <v>18.98066722531915</v>
+        <v>21.77980344335445</v>
       </c>
       <c r="R12">
-        <v>18.98066722531915</v>
+        <v>196.01823099019</v>
       </c>
       <c r="S12">
-        <v>0.003624738630567672</v>
+        <v>0.003679051403550656</v>
       </c>
       <c r="T12">
-        <v>0.003624738630567672</v>
+        <v>0.004611097135515019</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H13">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I13">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J13">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N13">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O13">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P13">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q13">
-        <v>4.960513179844374</v>
+        <v>5.968030496624834</v>
       </c>
       <c r="R13">
-        <v>4.960513179844374</v>
+        <v>35.80818297974901</v>
       </c>
       <c r="S13">
-        <v>0.0009473093615190156</v>
+        <v>0.001008121631223455</v>
       </c>
       <c r="T13">
-        <v>0.0009473093615190156</v>
+        <v>0.0008423451692826556</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H14">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I14">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J14">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N14">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O14">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P14">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q14">
-        <v>189.8885002773353</v>
+        <v>208.7096515982267</v>
       </c>
       <c r="R14">
-        <v>189.8885002773353</v>
+        <v>1252.25790958936</v>
       </c>
       <c r="S14">
-        <v>0.03626301300607963</v>
+        <v>0.0352553014835088</v>
       </c>
       <c r="T14">
-        <v>0.03626301300607963</v>
+        <v>0.02945788680300102</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H15">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I15">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J15">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N15">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O15">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P15">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q15">
-        <v>76.39850269190721</v>
+        <v>91.33366509929</v>
       </c>
       <c r="R15">
-        <v>76.39850269190721</v>
+        <v>822.0029858936101</v>
       </c>
       <c r="S15">
-        <v>0.0145898245165735</v>
+        <v>0.01542811208782955</v>
       </c>
       <c r="T15">
-        <v>0.0145898245165735</v>
+        <v>0.01933664840505835</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H16">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I16">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J16">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N16">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O16">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P16">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q16">
-        <v>119.8678083847715</v>
+        <v>207.9016403558422</v>
       </c>
       <c r="R16">
-        <v>119.8678083847715</v>
+        <v>1871.11476320258</v>
       </c>
       <c r="S16">
-        <v>0.02289115922301089</v>
+        <v>0.03511881196453262</v>
       </c>
       <c r="T16">
-        <v>0.02289115922301089</v>
+        <v>0.04401576262187099</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H17">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I17">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J17">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N17">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O17">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P17">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q17">
-        <v>345.1124563502925</v>
+        <v>381.959979002478</v>
       </c>
       <c r="R17">
-        <v>345.1124563502925</v>
+        <v>3437.639811022302</v>
       </c>
       <c r="S17">
-        <v>0.06590613689039962</v>
+        <v>0.064520802517987</v>
       </c>
       <c r="T17">
-        <v>0.06590613689039962</v>
+        <v>0.08086641229983667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H18">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I18">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J18">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N18">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O18">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P18">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q18">
-        <v>83.03187088724061</v>
+        <v>95.78162527846889</v>
       </c>
       <c r="R18">
-        <v>83.03187088724061</v>
+        <v>862.0346275062201</v>
       </c>
       <c r="S18">
-        <v>0.01585659905421095</v>
+        <v>0.01617946295206972</v>
       </c>
       <c r="T18">
-        <v>0.01585659905421095</v>
+        <v>0.02027834544536634</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H19">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I19">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J19">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N19">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O19">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P19">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q19">
-        <v>21.70001112151988</v>
+        <v>26.24576765189367</v>
       </c>
       <c r="R19">
-        <v>21.70001112151988</v>
+        <v>157.474605911362</v>
       </c>
       <c r="S19">
-        <v>0.004144051821897883</v>
+        <v>0.004433443514221726</v>
       </c>
       <c r="T19">
-        <v>0.004144051821897883</v>
+        <v>0.003704403924911341</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H20">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I20">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J20">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N20">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O20">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P20">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q20">
-        <v>163.5670053103734</v>
+        <v>166.2949699446734</v>
       </c>
       <c r="R20">
-        <v>163.5670053103734</v>
+        <v>997.7698196680401</v>
       </c>
       <c r="S20">
-        <v>0.03123639626555906</v>
+        <v>0.0280905998150797</v>
       </c>
       <c r="T20">
-        <v>0.03123639626555906</v>
+        <v>0.02347135536390434</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H21">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I21">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J21">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N21">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O21">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P21">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q21">
-        <v>65.80848380634292</v>
+        <v>72.77252861243501</v>
       </c>
       <c r="R21">
-        <v>65.80848380634292</v>
+        <v>654.952757511915</v>
       </c>
       <c r="S21">
-        <v>0.01256744826934963</v>
+        <v>0.01229275894191788</v>
       </c>
       <c r="T21">
-        <v>0.01256744826934963</v>
+        <v>0.01540698928260401</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H22">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I22">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J22">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N22">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O22">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P22">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q22">
-        <v>103.2522686838816</v>
+        <v>165.6511654812078</v>
       </c>
       <c r="R22">
-        <v>103.2522686838816</v>
+        <v>1490.86048933087</v>
       </c>
       <c r="S22">
-        <v>0.01971808907186219</v>
+        <v>0.02798184815801881</v>
       </c>
       <c r="T22">
-        <v>0.01971808907186219</v>
+        <v>0.03507073039624634</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H23">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I23">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J23">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N23">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O23">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P23">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q23">
-        <v>297.2745105579305</v>
+        <v>304.336779549417</v>
       </c>
       <c r="R23">
-        <v>297.2745105579305</v>
+        <v>2739.031015944753</v>
       </c>
       <c r="S23">
-        <v>0.05677052284363571</v>
+        <v>0.05140866669735756</v>
       </c>
       <c r="T23">
-        <v>0.05677052284363571</v>
+        <v>0.06443246634718239</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H24">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I24">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J24">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N24">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O24">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P24">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q24">
-        <v>71.52236415848168</v>
+        <v>76.31655927248113</v>
       </c>
       <c r="R24">
-        <v>71.52236415848168</v>
+        <v>686.84903345233</v>
       </c>
       <c r="S24">
-        <v>0.01365862818399516</v>
+        <v>0.01289141774101956</v>
       </c>
       <c r="T24">
-        <v>0.01365862818399516</v>
+        <v>0.01615731146375768</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H25">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I25">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J25">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N25">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O25">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P25">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q25">
-        <v>18.69205259489036</v>
+        <v>20.91201393622384</v>
       </c>
       <c r="R25">
-        <v>18.69205259489036</v>
+        <v>125.472083617343</v>
       </c>
       <c r="S25">
-        <v>0.003569621885310861</v>
+        <v>0.003532464120864707</v>
       </c>
       <c r="T25">
-        <v>0.003569621885310861</v>
+        <v>0.002951582423902123</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H26">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I26">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J26">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N26">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O26">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P26">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q26">
-        <v>298.5735624956284</v>
+        <v>303.2890122272667</v>
       </c>
       <c r="R26">
-        <v>298.5735624956284</v>
+        <v>1819.7340733636</v>
       </c>
       <c r="S26">
-        <v>0.0570186028339643</v>
+        <v>0.05123167750426509</v>
       </c>
       <c r="T26">
-        <v>0.0570186028339643</v>
+        <v>0.04280709263979589</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H27">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I27">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J27">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N27">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O27">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P27">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q27">
-        <v>120.1261428930102</v>
+        <v>132.72264535415</v>
       </c>
       <c r="R27">
-        <v>120.1261428930102</v>
+        <v>1194.50380818735</v>
       </c>
       <c r="S27">
-        <v>0.02294049337235905</v>
+        <v>0.02241955194605449</v>
       </c>
       <c r="T27">
-        <v>0.02294049337235905</v>
+        <v>0.02809928984906575</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H28">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I28">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J28">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N28">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O28">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P28">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q28">
-        <v>188.4756503196014</v>
+        <v>302.1148406942555</v>
       </c>
       <c r="R28">
-        <v>188.4756503196014</v>
+        <v>2719.0335662483</v>
       </c>
       <c r="S28">
-        <v>0.03599320100420424</v>
+        <v>0.05103333607121364</v>
       </c>
       <c r="T28">
-        <v>0.03599320100420424</v>
+        <v>0.06396204998566786</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H29">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I29">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J29">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N29">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O29">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P29">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q29">
-        <v>542.6418946046239</v>
+        <v>555.04986882453</v>
       </c>
       <c r="R29">
-        <v>542.6418946046239</v>
+        <v>4995.448819420771</v>
       </c>
       <c r="S29">
-        <v>0.1036283400677312</v>
+        <v>0.0937592023844722</v>
       </c>
       <c r="T29">
-        <v>0.1036283400677312</v>
+        <v>0.1175120274552207</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H30">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I30">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J30">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N30">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O30">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P30">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q30">
-        <v>130.5562024834186</v>
+        <v>139.1862537155222</v>
       </c>
       <c r="R30">
-        <v>130.5562024834186</v>
+        <v>1252.6762834397</v>
       </c>
       <c r="S30">
-        <v>0.02493232218784161</v>
+        <v>0.02351138674960337</v>
       </c>
       <c r="T30">
-        <v>0.02493232218784161</v>
+        <v>0.02946772855319503</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H31">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I31">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J31">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N31">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O31">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P31">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q31">
-        <v>34.12028436310881</v>
+        <v>38.13936195731167</v>
       </c>
       <c r="R31">
-        <v>34.12028436310881</v>
+        <v>228.83617174387</v>
       </c>
       <c r="S31">
-        <v>0.006515951802365318</v>
+        <v>0.006442513290099872</v>
       </c>
       <c r="T31">
-        <v>0.006515951802365318</v>
+        <v>0.005383100391734431</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H32">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I32">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J32">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N32">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O32">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P32">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q32">
-        <v>22.43475691443222</v>
+        <v>22.49232593589</v>
       </c>
       <c r="R32">
-        <v>22.43475691443222</v>
+        <v>89.96930374356002</v>
       </c>
       <c r="S32">
-        <v>0.004284366249604818</v>
+        <v>0.00379941093218654</v>
       </c>
       <c r="T32">
-        <v>0.004284366249604818</v>
+        <v>0.002116421501615185</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H33">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I33">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J33">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N33">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O33">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P33">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q33">
-        <v>9.026254007042212</v>
+        <v>9.842892020572501</v>
       </c>
       <c r="R33">
-        <v>9.026254007042212</v>
+        <v>59.05735212343501</v>
       </c>
       <c r="S33">
-        <v>0.001723744018071105</v>
+        <v>0.001662664486273596</v>
       </c>
       <c r="T33">
-        <v>0.001723744018071105</v>
+        <v>0.001389254386348898</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H34">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I34">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J34">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N34">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O34">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P34">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q34">
-        <v>14.16202212904131</v>
+        <v>22.405247776905</v>
       </c>
       <c r="R34">
-        <v>14.16202212904131</v>
+        <v>134.43148666143</v>
       </c>
       <c r="S34">
-        <v>0.002704521821530809</v>
+        <v>0.003784701661560403</v>
       </c>
       <c r="T34">
-        <v>0.002704521821530809</v>
+        <v>0.003162341787986894</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H35">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I35">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J35">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N35">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O35">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P35">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q35">
-        <v>40.77400187506532</v>
+        <v>41.1632537182695</v>
       </c>
       <c r="R35">
-        <v>40.77400187506532</v>
+        <v>246.979522309617</v>
       </c>
       <c r="S35">
-        <v>0.007786612449652858</v>
+        <v>0.006953310059054723</v>
       </c>
       <c r="T35">
-        <v>0.007786612449652858</v>
+        <v>0.005809901263264323</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H36">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I36">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J36">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N36">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O36">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P36">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q36">
-        <v>9.809966568723826</v>
+        <v>10.322242013895</v>
       </c>
       <c r="R36">
-        <v>9.809966568723826</v>
+        <v>61.93345208337001</v>
       </c>
       <c r="S36">
-        <v>0.001873409631185016</v>
+        <v>0.001743636441337921</v>
       </c>
       <c r="T36">
-        <v>0.001873409631185016</v>
+        <v>0.001456911237549513</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H37">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I37">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J37">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N37">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O37">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P37">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q37">
-        <v>2.563791245076686</v>
+        <v>2.828466992031751</v>
       </c>
       <c r="R37">
-        <v>2.563791245076686</v>
+        <v>11.313867968127</v>
       </c>
       <c r="S37">
-        <v>0.0004896072965414102</v>
+        <v>0.0004777855541256623</v>
       </c>
       <c r="T37">
-        <v>0.0004896072965414102</v>
+        <v>0.0002661453677848793</v>
       </c>
     </row>
   </sheetData>
